--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2717091.600712977</v>
+        <v>2821271.23516405</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.105228318</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8804249.555030691</v>
+        <v>8804249.555030689</v>
       </c>
     </row>
     <row r="11">
@@ -656,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.4571321610379</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2.379113942662977</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -722,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,7 +822,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>35.19569619650092</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +831,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>100.494018177455</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
@@ -877,7 +879,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>147.6364325960795</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>347.4173510049851</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>95.38172705591585</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>43.75688320100027</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,22 +1104,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1181,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>363.3655192809594</v>
+        <v>37.84125266805073</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>165.3848965658452</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>6.430825802817312</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>145.6718493954791</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>9.146142788180283</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1774,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>108.2950343703275</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>100.1928033809241</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634776</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1971,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
         <v>188.3046392154443</v>
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9065924712579</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>9.570729811036772</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2096,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2175,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2239,13 +2241,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>124.5931157466087</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856556</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>0.6324680438225141</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2296,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2369,16 +2371,16 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2412,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,13 +2490,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>0.01276235473584165</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>126.4418041083155</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2558,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,22 +2605,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695523</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881285</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678467</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2649,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2713,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766866</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>210.7001060820187</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2886,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2947,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2965,10 +2967,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428223</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>266.4326704219897</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3123,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>74.95497330698143</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>108.9065924712583</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3205,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3360,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>44.75138076689272</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>44.75138076689395</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3500,16 +3502,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3597,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3664,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3834,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3916,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>232.6961289392736</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444159</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4071,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4138,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>80.08971311158763</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528558</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4358,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943748</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158133</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>270.9995076393842</v>
+        <v>752.1025618495183</v>
       </c>
       <c r="C4" t="n">
-        <v>102.0633247114773</v>
+        <v>583.1663789216115</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>433.0497395092757</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>433.0497395092757</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>433.0497395092757</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>265.3469028839946</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610489</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046018</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W4" t="n">
-        <v>680.6375233676413</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="X4" t="n">
-        <v>452.6479724696239</v>
+        <v>933.7510266797581</v>
       </c>
       <c r="Y4" t="n">
-        <v>452.6479724696239</v>
+        <v>933.7510266797581</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1381.278680221568</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1583.077587705311</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1583.077587705311</v>
       </c>
       <c r="E5" t="n">
         <v>1232.150970528558</v>
@@ -4562,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2325.505862906803</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>1952.040104645723</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.87852028569</v>
+        <v>1952.040104645723</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,7 +4649,7 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
         <v>765.151745215813</v>
@@ -4662,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4677,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>724.5668517729318</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C7" t="n">
-        <v>555.630668845025</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D7" t="n">
-        <v>405.5140294326892</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E7" t="n">
-        <v>257.6009358502961</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F7" t="n">
-        <v>110.7109883523857</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>110.7109883523857</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658019</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1416.425065783662</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V7" t="n">
-        <v>1416.425065783662</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="W7" t="n">
-        <v>1127.007895746702</v>
+        <v>1191.821308835075</v>
       </c>
       <c r="X7" t="n">
-        <v>1127.007895746702</v>
+        <v>963.8317579370578</v>
       </c>
       <c r="Y7" t="n">
-        <v>906.2153166031716</v>
+        <v>743.0391787935276</v>
       </c>
     </row>
     <row r="8">
@@ -4778,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1678.62132134232</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
         <v>1678.62132134232</v>
@@ -4805,7 +4807,7 @@
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2435.796531379708</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X8" t="n">
-        <v>2068.760653318132</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>1678.62132134232</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.0144869816389</v>
+        <v>477.7831921883597</v>
       </c>
       <c r="C10" t="n">
-        <v>370.0144869816389</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="D10" t="n">
-        <v>219.8978475693032</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4999,13 +5001,13 @@
         <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>590.8070661251691</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>590.8070661251691</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y10" t="n">
-        <v>370.0144869816389</v>
+        <v>659.4316570185995</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,22 +5029,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5060,28 +5062,28 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>996.5276398439756</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C13" t="n">
-        <v>827.5914569160688</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D13" t="n">
-        <v>677.474817503733</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="E13" t="n">
-        <v>529.5617239213399</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="F13" t="n">
-        <v>382.6717764234295</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>244.7670222746428</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168409</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854706</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817745</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X13" t="n">
-        <v>1398.968683817745</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y13" t="n">
-        <v>1178.176104674215</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="14">
@@ -5264,49 +5266,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466574</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468469</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962605</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143763</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>633.4413279836775</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>464.5051450557706</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D16" t="n">
-        <v>464.5051450557706</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557706</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578603</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138406</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>815.0897928139173</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5507,58 +5509,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5577,40 +5579,40 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756264</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913849</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417936</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972543</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211829</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2515.675093211829</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>653.7474797708871</v>
+        <v>3195.647281583949</v>
       </c>
       <c r="C19" t="n">
-        <v>484.8112968429802</v>
+        <v>3026.711098656042</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>2876.594459243707</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797182</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782956</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L19" t="n">
-        <v>826.140538179774</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910808</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S19" t="n">
-        <v>2336.956424518383</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T19" t="n">
-        <v>2117.354959541324</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="U19" t="n">
-        <v>1828.279732885522</v>
+        <v>4151.857387650099</v>
       </c>
       <c r="V19" t="n">
-        <v>1573.595244679635</v>
+        <v>3897.172899444212</v>
       </c>
       <c r="W19" t="n">
-        <v>1284.178074642674</v>
+        <v>3607.755729407251</v>
       </c>
       <c r="X19" t="n">
-        <v>1056.188523744657</v>
+        <v>3598.088325557719</v>
       </c>
       <c r="Y19" t="n">
-        <v>835.3959446011269</v>
+        <v>3377.295746414189</v>
       </c>
     </row>
     <row r="20">
@@ -5744,40 +5746,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5786,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273895</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>245.2306927803936</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>740.556298996152</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718139</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327634</v>
+        <v>950.7540666811332</v>
       </c>
       <c r="C22" t="n">
-        <v>763.7541388327634</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D22" t="n">
-        <v>763.7541388327634</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E22" t="n">
-        <v>615.8410452503703</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>468.9510977524599</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>301.7549984673398</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.278523222742</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.3616186032</v>
+        <v>2159.677058245683</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947398</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741511</v>
+        <v>1870.601831589881</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1581.18466155292</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806533</v>
+        <v>1353.195110654903</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.4026036630031</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168599</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>251.5626541092274</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>746.8882603249859</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P24" t="n">
         <v>2319.799627685893</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1016.58045691144</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="C25" t="n">
-        <v>847.644273983533</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D25" t="n">
-        <v>697.5276345711973</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E25" t="n">
-        <v>549.6145409888042</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797183</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.950192312851</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.095357967755</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.493892990697</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.418666334894</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1500.734178129007</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1211.317008092047</v>
       </c>
       <c r="X25" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3274571940295</v>
       </c>
       <c r="Y25" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5348780504994</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6205,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>738.7889117913851</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.167399417937</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
-        <v>1963.765362972543</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2515.67509321183</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2515.67509321183</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3175.341129796737</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C28" t="n">
-        <v>3006.40494686883</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="D28" t="n">
-        <v>2856.288307456495</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E28" t="n">
-        <v>2708.375213874102</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376191</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376191</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218389</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.02030972914</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389148</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098133</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671692</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650994</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S28" t="n">
-        <v>4623.787448650994</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T28" t="n">
-        <v>4623.787448650994</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U28" t="n">
-        <v>4334.712221995192</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V28" t="n">
-        <v>4080.027733789305</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W28" t="n">
-        <v>3790.610563752344</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X28" t="n">
-        <v>3577.782173770507</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y28" t="n">
-        <v>3356.989594626977</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6442,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615667</v>
       </c>
       <c r="C30" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.71794833454</v>
       </c>
       <c r="D30" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673289</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>2598.546083667833</v>
       </c>
       <c r="F30" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694718</v>
       </c>
       <c r="G30" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740626</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385792</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756265</v>
+        <v>2381.235169913447</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>2715.159942084667</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>3210.485548300426</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589157</v>
+        <v>3715.300272664239</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143764</v>
+        <v>3715.300272664239</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>4267.210002903526</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R30" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S30" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301207</v>
       </c>
       <c r="T30" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.415660022981</v>
       </c>
       <c r="U30" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566166</v>
       </c>
       <c r="V30" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334423</v>
       </c>
       <c r="W30" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606222</v>
       </c>
       <c r="X30" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400689</v>
       </c>
       <c r="Y30" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635735</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>3026.711098656042</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630498</v>
+        <v>3026.711098656042</v>
       </c>
       <c r="D31" t="n">
-        <v>2588.787486630498</v>
+        <v>2876.594459243707</v>
       </c>
       <c r="E31" t="n">
-        <v>2588.787486630498</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="F31" t="n">
-        <v>2588.787486630498</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G31" t="n">
-        <v>2421.591387345378</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866305</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I31" t="n">
         <v>2337.686731866305</v>
@@ -6622,49 +6624,49 @@
         <v>2417.922750296629</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L31" t="n">
         <v>3070.010606998108</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>4507.978318053499</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>4288.37685307644</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>3999.301626420638</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>3744.617138214751</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>3475.49322869759</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>3247.503677799572</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>3026.711098656042</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6716,10 +6718,10 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6777,16 +6779,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245714</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L33" t="n">
-        <v>776.17510664033</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266882</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
         <v>2001.151557821488</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>3113.560578231862</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>2944.624395303955</v>
       </c>
       <c r="D34" t="n">
-        <v>594.8179559048574</v>
+        <v>2794.50775589162</v>
       </c>
       <c r="E34" t="n">
-        <v>594.8179559048574</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578603</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>4471.231687421535</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>4182.156460765733</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>3927.471972559846</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>3638.054802522885</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>3410.065251624868</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>3189.272672481338</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192589</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6962,25 +6964,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913851</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
         <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972543</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1963.765362972543</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2387.388512467613</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>763.7541388327643</v>
+        <v>718.550723916711</v>
       </c>
       <c r="C37" t="n">
-        <v>594.8179559048574</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="D37" t="n">
         <v>549.6145409888042</v>
@@ -7087,58 +7089,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2401.759668664206</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2182.158203687148</v>
       </c>
       <c r="U37" t="n">
-        <v>1938.286391947399</v>
+        <v>1893.082977031346</v>
       </c>
       <c r="V37" t="n">
-        <v>1683.601903741512</v>
+        <v>1638.398488825459</v>
       </c>
       <c r="W37" t="n">
-        <v>1394.184733704551</v>
+        <v>1348.981318788498</v>
       </c>
       <c r="X37" t="n">
-        <v>1166.195182806534</v>
+        <v>1120.991767890481</v>
       </c>
       <c r="Y37" t="n">
-        <v>945.402603663004</v>
+        <v>900.1991887469508</v>
       </c>
     </row>
     <row r="38">
@@ -7163,37 +7165,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192764</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111731</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7236,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348531</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,61 +7399,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7475,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969311</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>634.927936255316</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>634.927936255316</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7596,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1809.460189369951</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V43" t="n">
-        <v>1554.775701164064</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W43" t="n">
-        <v>1265.358531127103</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X43" t="n">
-        <v>1037.368980229086</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y43" t="n">
-        <v>816.5764010855557</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362708</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797193</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111758</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075849</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332391</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014783</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7710,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7721,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>842.6091804069454</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1470.207143961552</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2022.116874200839</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2445.740023695907</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2978.516248701937</v>
+        <v>2815.530845237133</v>
       </c>
       <c r="C46" t="n">
-        <v>2809.580065774031</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="D46" t="n">
-        <v>2728.681365661316</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="E46" t="n">
-        <v>2728.681365661316</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661316</v>
+        <v>2646.594662309226</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376196</v>
+        <v>2479.398563024106</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218394</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866308</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296631</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.61201282217</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.01060699811</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729145</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389153</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098138</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671697</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650998</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305902</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328844</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673042</v>
+        <v>3990.063098351768</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467155</v>
+        <v>3735.378610145881</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430194</v>
+        <v>3445.96144010892</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532177</v>
+        <v>3217.971889210903</v>
       </c>
       <c r="Y46" t="n">
-        <v>3160.164713532177</v>
+        <v>2997.179310067373</v>
       </c>
     </row>
   </sheetData>
@@ -8316,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>19.8522888967897</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038522</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>118.3918499711707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.11969353038671</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>216.1389255780004</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,13 +24129,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>15.70159709961514</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012171</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>180.3938179578221</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.36248435538582</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>99.26785128072164</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24601,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>15.00954930701846</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24835,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194166</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>20.09032791460129</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>104.8770068749559</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>36.51445555167294</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>103.8640922513196</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>136.2749052347506</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25804,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>53.48834544997058</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>68.52575990662473</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758199.5400484896</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484898</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484898</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>758199.5400484898</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484898</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484898</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>758199.5400484896</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="15">
@@ -26314,46 +26316,46 @@
         <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.4601380341</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380336</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442545</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442545</v>
+        <v>665895.944744255</v>
       </c>
       <c r="H2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.944744255</v>
       </c>
       <c r="I2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442553</v>
       </c>
       <c r="J2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="K2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="K2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="L2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="M2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="N2" t="n">
+        <v>665895.9447442548</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442547</v>
       </c>
-      <c r="O2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="P2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
+        <v>12386.92018181807</v>
+      </c>
+      <c r="F4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="F4" t="n">
-        <v>12386.92018181822</v>
-      </c>
       <c r="G4" t="n">
-        <v>12386.92018181827</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181819</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181825</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26448,10 +26450,10 @@
         <v>12386.92018181813</v>
       </c>
       <c r="M4" t="n">
-        <v>12386.9201818182</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26476,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26522,46 +26524,46 @@
         <v>-850893.1811041217</v>
       </c>
       <c r="C6" t="n">
-        <v>477851.5646234708</v>
+        <v>477851.5646234716</v>
       </c>
       <c r="D6" t="n">
-        <v>477851.5646234709</v>
+        <v>477851.5646234705</v>
       </c>
       <c r="E6" t="n">
-        <v>226974.0329311742</v>
+        <v>226974.0329311735</v>
       </c>
       <c r="F6" t="n">
         <v>552386.4947385296</v>
       </c>
       <c r="G6" t="n">
-        <v>552386.4947385293</v>
+        <v>552386.4947385301</v>
       </c>
       <c r="H6" t="n">
-        <v>552386.4947385293</v>
+        <v>552386.4947385299</v>
       </c>
       <c r="I6" t="n">
-        <v>552386.4947385294</v>
+        <v>552386.4947385301</v>
       </c>
       <c r="J6" t="n">
-        <v>334855.292341252</v>
+        <v>334855.2923412524</v>
       </c>
       <c r="K6" t="n">
         <v>552386.4947385297</v>
       </c>
       <c r="L6" t="n">
+        <v>552386.4947385298</v>
+      </c>
+      <c r="M6" t="n">
+        <v>467331.4668030178</v>
+      </c>
+      <c r="N6" t="n">
+        <v>552386.4947385298</v>
+      </c>
+      <c r="O6" t="n">
         <v>552386.4947385296</v>
       </c>
-      <c r="M6" t="n">
-        <v>467331.4668030179</v>
-      </c>
-      <c r="N6" t="n">
-        <v>552386.4947385294</v>
-      </c>
-      <c r="O6" t="n">
-        <v>552386.4947385297</v>
-      </c>
       <c r="P6" t="n">
-        <v>552386.4947385299</v>
+        <v>552386.4947385298</v>
       </c>
     </row>
   </sheetData>
@@ -26747,13 +26749,13 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26787,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26826,10 +26828,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26963,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024427</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>362.8937778283446</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27442,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27540,7 +27542,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>113.4197768217114</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27551,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>44.26099673686579</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,7 +27587,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,7 +27599,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>217.6364591749281</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>34.51301906727667</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>84.45025312602145</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>100.9981317133205</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>6.365581397509629</v>
+        <v>331.8898480104183</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>1.861924532782609</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>140.0031368437519</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28141,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28567,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>-5.487218467042014e-13</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200306</v>
+        <v>465.7451325200299</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31865,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>363.5371514786855</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>391.9250669264616</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437241</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q18" t="n">
-        <v>140.7358547888826</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32387,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>353.6230700590505</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437241</v>
+        <v>363.5371514786841</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>146.0225991093094</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437242</v>
+        <v>370.9642309107744</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>583.1096135868572</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>140.7358547888817</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>652.047896915769</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669242</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551114</v>
+        <v>175.6052721551105</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>456.5952253539627</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>307.3280120589129</v>
       </c>
       <c r="R36" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067249</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33922,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,40 +33970,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>248.7449369209195</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>361.7519118779101</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34047,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34077,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043748</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34208,37 +34210,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>281.0363767960757</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>601.0567753070492</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34284,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34314,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34357,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663326</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34396,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34445,37 +34447,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437242</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>211.3773391484002</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34521,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34551,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366973</v>
+        <v>334.4034204366966</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>220.940907034241</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>257.9506595121313</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789205</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992796</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.754080702861095</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774872</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>211.4890361370322</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992796</v>
+        <v>220.9409070342396</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>8.181160134950407</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992797</v>
+        <v>228.3679864663299</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>440.9755796648388</v>
       </c>
       <c r="N27" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.7540807028601763</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>509.9138629937507</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121327</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924747</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075244</v>
+        <v>37.76383318075146</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317227</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>322.6208179396324</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>167.3462379728913</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37537,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236318958</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>219.1556674334657</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37707,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902427</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>138.9023428740574</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>469.7150632237159</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
         <v>264.3325884096349</v>
@@ -37944,19 +37946,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396463</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992797</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>71.39556506237862</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38181,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2821271.23516405</v>
+        <v>2817258.625150058</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.379113942662977</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>184.4530101301292</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991666</v>
       </c>
       <c r="H4" t="n">
-        <v>100.494018177455</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>347.4173510049851</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>138.3721243800024</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -952,7 +952,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>95.38172705591585</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>4.043187116398514</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1147,7 +1147,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>188.2196394312111</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>37.84125266805073</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,10 +1293,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>165.3848965658452</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>218.1043346164863</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I13" t="n">
-        <v>9.146142788180283</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>108.2950343703275</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>9.570729811036772</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2134,7 +2134,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2247,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419833859</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>0.6324680438225141</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2298,7 +2298,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2380,7 +2380,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,13 +2484,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.01276235473584165</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,10 +2538,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>246.9480135426053</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766866</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>266.4326704219897</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>74.95497330698143</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>42.53134576113764</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
-        <v>44.75138076689395</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>9.795251606876059</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140705</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1292.833068744076</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>934.5673701373257</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4348,7 +4348,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>3028.99898128765</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2697.936093944079</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686076</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986303</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158133</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>752.1025618495183</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C4" t="n">
-        <v>583.1663789216115</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D4" t="n">
-        <v>433.0497395092757</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E4" t="n">
-        <v>433.0497395092757</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F4" t="n">
-        <v>433.0497395092757</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G4" t="n">
-        <v>265.3469028839946</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4509,31 +4509,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1705.527932658019</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1416.425065783662</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1161.740577577775</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W4" t="n">
-        <v>1161.740577577775</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X4" t="n">
-        <v>933.7510266797581</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.7510266797581</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1952.040104645723</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C5" t="n">
-        <v>1583.077587705311</v>
+        <v>552.807938939214</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.077587705311</v>
+        <v>552.807938939214</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>552.807938939214</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>545.8624381900105</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4567,16 +4567,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4585,7 +4585,7 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
@@ -4600,19 +4600,19 @@
         <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645723</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y5" t="n">
-        <v>1952.040104645723</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>646.6939999491682</v>
+        <v>684.4520072430311</v>
       </c>
       <c r="C7" t="n">
-        <v>477.7578170212613</v>
+        <v>515.5158243151242</v>
       </c>
       <c r="D7" t="n">
-        <v>477.7578170212613</v>
+        <v>365.3991849027884</v>
       </c>
       <c r="E7" t="n">
-        <v>477.7578170212613</v>
+        <v>217.4860913203953</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>70.59614382248495</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1446.505797040962</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1191.821308835075</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1191.821308835075</v>
+        <v>1094.090022971288</v>
       </c>
       <c r="X7" t="n">
-        <v>963.8317579370578</v>
+        <v>866.1004720732708</v>
       </c>
       <c r="Y7" t="n">
-        <v>743.0391787935276</v>
+        <v>866.1004720732708</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1822.632236038043</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1095.404020490881</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>709.6157678926365</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>298.629863103029</v>
       </c>
       <c r="G8" t="n">
         <v>108.5090151927147</v>
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2862.546497866151</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X8" t="n">
-        <v>2824.323010322666</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y8" t="n">
-        <v>2434.183678346854</v>
+        <v>2209.232076102165</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.7831921883597</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C10" t="n">
-        <v>310.7277411117484</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D10" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E10" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1706.987139384971</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1452.302651179084</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1162.885481142124</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>934.8959302441062</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.4316570185995</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>589.1422692637304</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1814.118720444888</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2366.028450684175</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876697</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>411.9631215597628</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G13" t="n">
-        <v>244.7670222746428</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H13" t="n">
-        <v>103.0551911168409</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602305</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614396</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179095</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,13 +5266,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5281,13 +5281,13 @@
         <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5296,22 +5296,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468473</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,13 +5454,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5478,10 +5478,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5503,28 +5503,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5533,7 +5533,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3195.647281583949</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>3026.711098656042</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>2876.594459243707</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>2728.681365661314</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>2561.485266376194</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>4440.932614305901</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>4151.857387650099</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>3897.172899444212</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>3607.755729407251</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>3598.088325557719</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>3377.295746414189</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5746,40 +5746,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
@@ -5937,25 +5937,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.278523222742</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2159.677058245683</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1870.601831589881</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,55 +5983,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>762.5348780504994</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="C25" t="n">
-        <v>762.5348780504994</v>
+        <v>781.8178837532263</v>
       </c>
       <c r="D25" t="n">
-        <v>612.4182386381636</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E25" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.950192312851</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.095357967755</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.493892990697</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.418666334894</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.734178129007</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.317008092047</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3274571940295</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5348780504994</v>
+        <v>963.466348583466</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6220,55 +6220,55 @@
         <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2757.723669558405</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.255922673039</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467152</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430192</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>2939.372134388645</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168624</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>2715.159942084667</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>3210.485548300426</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>3715.300272664239</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3715.300272664239</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4267.210002903526</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3026.711098656042</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3026.711098656042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>2876.594459243707</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>4690.833152398594</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4507.978318053499</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>4288.37685307644</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>3999.301626420638</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3744.617138214751</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3475.49322869759</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3247.503677799572</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3026.711098656042</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3113.560578231862</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C34" t="n">
-        <v>2944.624395303955</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D34" t="n">
-        <v>2794.50775589162</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E34" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F34" t="n">
-        <v>2646.594662309226</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>2479.398563024106</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.156460765733</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V34" t="n">
-        <v>3927.471972559846</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W34" t="n">
-        <v>3638.054802522885</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X34" t="n">
-        <v>3410.065251624868</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y34" t="n">
-        <v>3189.272672481338</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="35">
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1963.765362972544</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2387.388512467613</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>718.550723916711</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>549.6145409888042</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
         <v>402.7245934908938</v>
@@ -7119,28 +7119,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2401.759668664206</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2182.158203687148</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1893.082977031346</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1638.398488825459</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1348.981318788498</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1120.991767890481</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>900.1991887469508</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,13 +7189,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7247,28 +7247,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311365</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032296</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>103.7108565902709</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2404.986360578632</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2185.384895601574</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613763</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7493,25 +7493,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>842.6091804069456</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
         <v>402.7245934908939</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,19 +7636,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7742,13 +7742,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2815.530845237133</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3990.063098351768</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3735.378610145881</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3445.96144010892</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3217.971889210903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>2997.179310067373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I13" t="n">
-        <v>72.11969353038522</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>57.22910392194134</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>216.1389255780004</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>180.3938179578221</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24372,13 +24372,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.36248435538582</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,10 +24426,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>39.57498479398575</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194126</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>20.09032791460129</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>104.8770068749559</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>138.4949402405069</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
-        <v>136.2749052347506</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>130.4994612393478</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>758199.5400484898</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>758199.5400484898</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>758199.5400484898</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758199.5400484898</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758199.5400484898</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380336</v>
+        <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380341</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442545</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="I2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="I2" t="n">
-        <v>665895.9447442553</v>
-      </c>
       <c r="J2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442548</v>
       </c>
-      <c r="O2" t="n">
-        <v>665895.9447442547</v>
-      </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,10 +26374,10 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.897497092315462e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91573.95495316942</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316945</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="F4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="G4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181809</v>
       </c>
       <c r="K4" t="n">
         <v>12386.92018181813</v>
@@ -26453,7 +26453,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181817</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26478,10 +26478,10 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-850893.1811041217</v>
+        <v>-850893.1811041213</v>
       </c>
       <c r="C6" t="n">
-        <v>477851.5646234716</v>
+        <v>477851.564623471</v>
       </c>
       <c r="D6" t="n">
-        <v>477851.5646234705</v>
+        <v>477851.5646234708</v>
       </c>
       <c r="E6" t="n">
-        <v>226974.0329311735</v>
+        <v>226626.6536768178</v>
       </c>
       <c r="F6" t="n">
-        <v>552386.4947385296</v>
+        <v>552039.1154841725</v>
       </c>
       <c r="G6" t="n">
-        <v>552386.4947385301</v>
+        <v>552039.1154841729</v>
       </c>
       <c r="H6" t="n">
-        <v>552386.4947385299</v>
+        <v>552039.1154841729</v>
       </c>
       <c r="I6" t="n">
-        <v>552386.4947385301</v>
+        <v>552039.1154841729</v>
       </c>
       <c r="J6" t="n">
-        <v>334855.2923412524</v>
+        <v>334507.9130868952</v>
       </c>
       <c r="K6" t="n">
-        <v>552386.4947385297</v>
+        <v>552039.1154841728</v>
       </c>
       <c r="L6" t="n">
-        <v>552386.4947385298</v>
+        <v>552039.1154841729</v>
       </c>
       <c r="M6" t="n">
-        <v>467331.4668030178</v>
+        <v>466984.0875486609</v>
       </c>
       <c r="N6" t="n">
-        <v>552386.4947385298</v>
+        <v>552039.1154841726</v>
       </c>
       <c r="O6" t="n">
-        <v>552386.4947385296</v>
+        <v>552039.1154841727</v>
       </c>
       <c r="P6" t="n">
-        <v>552386.4947385298</v>
+        <v>552039.1154841727</v>
       </c>
     </row>
   </sheetData>
@@ -26798,7 +26798,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26807,16 +26807,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>1172.708288099649</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>362.8937778283446</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,10 +27432,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>66.54216182877281</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>94.35543628911157</v>
       </c>
       <c r="H4" t="n">
-        <v>44.26099673686579</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>34.51301906727667</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>272.5496012734511</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.45025312602145</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>161.9826211426297</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27824,7 +27824,7 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -27836,13 +27836,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>222.7020862222423</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>331.8898480104183</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,10 +28013,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.861924532782609</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>68.10750358912654</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28569,7 +28569,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.487218467042014e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>-5.578167937219307e-13</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200299</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>322.8964653704916</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,28 +32074,28 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>391.9250669264616</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32311,16 +32311,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862122</v>
@@ -32329,16 +32329,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>399.4395445221152</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32575,7 +32575,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>370.9642309107744</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32946,7 +32946,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817577</v>
@@ -33022,34 +33022,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33259,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>652.047896915769</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,13 +33496,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473073</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33733,13 +33733,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>307.3280120589129</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,16 +33970,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>248.7449369209195</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34213,28 +34213,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>601.0567753070492</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>361.7519118779092</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366966</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>188.9220579561613</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>257.9506595121313</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35959,16 +35959,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35977,16 +35977,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>265.4651371077849</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36223,7 +36223,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>228.3679864663299</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.4543240367771</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36919,16 +36919,16 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>509.9138629937507</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.3288951674331</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>167.3462379728913</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>110.1905571410453</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>469.7150632237159</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>219.1556674334648</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_19_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2817258.625150058</v>
+        <v>2819019.155452843</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>232.8259547974229</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>184.4530101301292</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>71.67037196991666</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -901,16 +901,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>138.3721243800024</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>14.25108662428269</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>4.043187116398514</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>124.2292170629834</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1144,13 +1144,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>296.8179291114907</v>
       </c>
       <c r="G8" t="n">
-        <v>188.2196394312111</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>71.67037196991711</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>218.1043346164863</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>28.75188085812055</v>
+        <v>23.62554568141315</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856552</v>
@@ -2134,13 +2134,13 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>99.97427419833859</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,19 +2529,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>146.185049953102</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>246.9480135426053</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2845,7 +2845,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576172</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2952,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>27.77749086859546</v>
       </c>
       <c r="S31" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>42.53134576113725</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>42.53134576113764</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>9.795251606876059</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>177.0850116794029</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>93.4044447618827</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>108.9065924712584</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4149,13 +4149,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>716.762298705796</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>301.6898485507924</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
@@ -4363,19 +4363,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>3028.99898128765</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.936093944079</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W2" t="n">
-        <v>2345.167438673965</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.167438673965</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>2345.167438673965</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686076</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064751</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.064395508013</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>752.7622949738575</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>583.8261120459506</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>433.7094726336148</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>285.7963790512217</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>138.9064315533114</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
         <v>66.51211643218342</v>
@@ -4524,16 +4524,16 @@
         <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882605</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845645</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.203338947627</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.4107598040972</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>921.7704558796256</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
-        <v>552.807938939214</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>552.807938939214</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>552.807938939214</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>545.8624381900105</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>3105.233036999167</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943747</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4664,10 +4664,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125856</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>684.4520072430311</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>515.5158243151242</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>365.3991849027884</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>217.4860913203953</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>70.59614382248495</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
         <v>111.6347488791189</v>
@@ -4752,25 +4752,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1801.810490449115</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1801.810490449115</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1801.810490449115</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>1547.126002243228</v>
       </c>
       <c r="W7" t="n">
-        <v>1094.090022971288</v>
+        <v>1257.708832206268</v>
       </c>
       <c r="X7" t="n">
-        <v>866.1004720732708</v>
+        <v>1029.71928130825</v>
       </c>
       <c r="Y7" t="n">
-        <v>866.1004720732708</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038043</v>
+        <v>1865.035106955552</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097631</v>
+        <v>1865.035106955552</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490881</v>
+        <v>1506.769408348802</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926365</v>
+        <v>1120.981155750558</v>
       </c>
       <c r="F8" t="n">
-        <v>298.629863103029</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4840,16 +4840,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339056</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077976</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102165</v>
+        <v>2251.634947019674</v>
       </c>
     </row>
     <row r="9">
@@ -4874,10 +4874,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4886,19 +4886,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.4548862703364</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300938</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300938</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
         <v>66.51211643218342</v>
@@ -4995,19 +4995,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1706.987139384971</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1452.302651179084</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>1162.885481142124</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>934.8959302441062</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>714.1033511005761</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5047,31 +5047,31 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637304</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
         <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444888</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684175</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5293,7 +5293,7 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5302,25 +5302,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5415,25 +5415,25 @@
         <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5512,7 +5512,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
@@ -5533,7 +5533,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5782,10 +5782,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5892,16 +5892,16 @@
         <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>194.8007783998291</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797189</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797189</v>
@@ -5980,25 +5980,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819251</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
         <v>2950.898526355936</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.8178837532263</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532263</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408905</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6177,22 +6177,22 @@
         <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1184.258927726996</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.258927726996</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.466348583466</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273909</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6487,28 +6487,28 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,10 +6597,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>552.8412329032295</v>
       </c>
       <c r="D31" t="n">
         <v>402.7245934908938</v>
@@ -6615,10 +6615,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782958</v>
@@ -6645,28 +6645,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2418.905011995821</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2236.050177650725</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>955.2822768769994</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>734.4896977334693</v>
       </c>
     </row>
     <row r="32">
@@ -6688,10 +6688,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D34" t="n">
         <v>484.8112968429802</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2336.956424518383</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2117.354959541324</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1828.279732885522</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1573.595244679635</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W34" t="n">
-        <v>1284.178074642674</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
     <row r="35">
@@ -6925,28 +6925,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
@@ -6955,31 +6955,31 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7089,10 +7089,10 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782958</v>
@@ -7119,13 +7119,13 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
         <v>1746.193029533436</v>
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,52 +7162,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192633</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>734.6461798836013</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C40" t="n">
-        <v>565.7099969556945</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D40" t="n">
-        <v>565.7099969556945</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E40" t="n">
-        <v>417.7969033733013</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F40" t="n">
-        <v>270.906955875391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
-        <v>103.7108565902709</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.188796316454</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1729.113569660651</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y40" t="n">
-        <v>916.2946447138411</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="41">
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>138.4949402405073</v>
+        <v>143.6212754172147</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844823058</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24417,19 +24417,19 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>71.22040037418631</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>39.57498479398575</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>38.5977558415262</v>
       </c>
       <c r="S31" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0841272570751</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>138.4949402405069</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>130.4994612393478</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>40.3204386478854</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>72.11969353038614</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>39.70888054695399</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>758199.5400484896</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484896</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>758199.5400484897</v>
+        <v>758199.5400484898</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>758199.5400484896</v>
+        <v>758199.5400484897</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>758199.5400484896</v>
+        <v>758199.5400484898</v>
       </c>
     </row>
   </sheetData>
@@ -26316,43 +26316,43 @@
         <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="F2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="I2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="J2" t="n">
         <v>665895.944744255</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442549</v>
-      </c>
       <c r="K2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="L2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
         <v>665895.9447442548</v>
@@ -26374,10 +26374,10 @@
         <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>4.897497092315462e-10</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>91573.95495316945</v>
+      </c>
+      <c r="C4" t="n">
         <v>91573.95495316948</v>
-      </c>
-      <c r="C4" t="n">
-        <v>91573.95495316944</v>
       </c>
       <c r="D4" t="n">
         <v>91573.95495316942</v>
@@ -26435,16 +26435,16 @@
         <v>12386.92018181813</v>
       </c>
       <c r="H4" t="n">
-        <v>12386.92018181807</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="J4" t="n">
-        <v>12386.92018181809</v>
+        <v>12386.92018181813</v>
       </c>
       <c r="K4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181808</v>
       </c>
       <c r="L4" t="n">
         <v>12386.92018181813</v>
@@ -26453,7 +26453,7 @@
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>12386.92018181817</v>
+        <v>12386.92018181807</v>
       </c>
       <c r="O4" t="n">
         <v>12386.92018181813</v>
@@ -26524,46 +26524,46 @@
         <v>-850893.1811041213</v>
       </c>
       <c r="C6" t="n">
-        <v>477851.564623471</v>
+        <v>477851.5646234712</v>
       </c>
       <c r="D6" t="n">
-        <v>477851.5646234708</v>
+        <v>477851.5646234705</v>
       </c>
       <c r="E6" t="n">
-        <v>226626.6536768178</v>
+        <v>226939.2950057387</v>
       </c>
       <c r="F6" t="n">
-        <v>552039.1154841725</v>
+        <v>552351.756813094</v>
       </c>
       <c r="G6" t="n">
-        <v>552039.1154841729</v>
+        <v>552351.7568130943</v>
       </c>
       <c r="H6" t="n">
-        <v>552039.1154841729</v>
+        <v>552351.7568130943</v>
       </c>
       <c r="I6" t="n">
-        <v>552039.1154841729</v>
+        <v>552351.7568130945</v>
       </c>
       <c r="J6" t="n">
-        <v>334507.9130868952</v>
+        <v>334820.5544158167</v>
       </c>
       <c r="K6" t="n">
-        <v>552039.1154841728</v>
+        <v>552351.7568130943</v>
       </c>
       <c r="L6" t="n">
-        <v>552039.1154841729</v>
+        <v>552351.7568130943</v>
       </c>
       <c r="M6" t="n">
-        <v>466984.0875486609</v>
+        <v>467296.7288775824</v>
       </c>
       <c r="N6" t="n">
-        <v>552039.1154841726</v>
+        <v>552351.7568130945</v>
       </c>
       <c r="O6" t="n">
-        <v>552039.1154841727</v>
+        <v>552351.7568130944</v>
       </c>
       <c r="P6" t="n">
-        <v>552039.1154841727</v>
+        <v>552351.756813094</v>
       </c>
     </row>
   </sheetData>
@@ -26792,16 +26792,16 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
@@ -26810,22 +26810,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>1172.708288099649</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26968,10 +26968,10 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>61.78180958989753</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>66.54216182877281</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>94.35543628911157</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27596,7 +27596,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27621,16 +27621,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>272.5496012734511</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>236.7440853346193</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>161.9826211426297</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -27824,13 +27824,13 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>65.5398082684585</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>110.0581166302208</v>
       </c>
       <c r="G8" t="n">
-        <v>222.7020862222423</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,13 +28019,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911111</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>68.10750358912654</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-5.578167937219307e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31846,19 +31846,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704916</v>
+        <v>322.8964653704906</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32074,7 +32074,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33022,7 +33022,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
         <v>125.3175546292901</v>
@@ -33259,7 +33259,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
         <v>125.3175546292901</v>
@@ -33733,7 +33733,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067235</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34386,7 +34386,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35494,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561613</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317594</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38034,7 +38034,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
